--- a/test Sen.xlsx
+++ b/test Sen.xlsx
@@ -36,9 +36,6 @@
     <t>ID Test Senario</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
     <t>Sub Feature</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>space between char</t>
+  </si>
+  <si>
+    <t>Fea</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F1:F1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,19 +477,19 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>9</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -497,37 +497,37 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
         <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -535,33 +535,33 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
